--- a/results/comparaison/WM/depolarization/median_raw_data.xlsx
+++ b/results/comparaison/WM/depolarization/median_raw_data.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CS7"/>
+  <dimension ref="A1:CW7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:97">
+    <row r="1" spans="1:101">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -661,8 +661,20 @@
       <c r="CS1" s="1">
         <v>95</v>
       </c>
+      <c r="CT1" s="1">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1">
+        <v>99</v>
+      </c>
     </row>
-    <row r="2" spans="1:97">
+    <row r="2" spans="1:101">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -670,55 +682,55 @@
         <v>0.9375486882344108</v>
       </c>
       <c r="C2">
+        <v>0.9598245018863556</v>
+      </c>
+      <c r="D2">
         <v>0.9580207845330602</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.9437119401980651</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.9576572521660356</v>
       </c>
-      <c r="F2">
+      <c r="G2">
+        <v>0.9582154250960554</v>
+      </c>
+      <c r="H2">
         <v>0.9337075170392304</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>0.9492380752826776</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>0.963497218096806</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>0.9301604642422304</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>0.9470375923662104</v>
-      </c>
-      <c r="K2">
-        <v>0.9464963866250078</v>
-      </c>
-      <c r="L2">
-        <v>0.9495767191632644</v>
       </c>
       <c r="M2">
         <v>0.9389713264263376</v>
       </c>
       <c r="N2">
+        <v>0.9464963866250078</v>
+      </c>
+      <c r="O2">
+        <v>0.9495767191632644</v>
+      </c>
+      <c r="P2">
         <v>0.9576979878017152</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>0.94212202468116</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>0.9554254169108451</v>
       </c>
-      <c r="Q2">
-        <v>0.937841730020716</v>
-      </c>
-      <c r="R2">
-        <v>0.9481567949174028</v>
-      </c>
       <c r="S2">
-        <v>0.9569607071579992</v>
+        <v>0.9484654223102792</v>
       </c>
       <c r="T2">
         <v>0.9550678863480928</v>
@@ -742,259 +754,304 @@
         <v>0.9565374842502667</v>
       </c>
       <c r="AA2">
-        <v>0.9554811106441298</v>
+        <v>0.942736054585571</v>
       </c>
       <c r="AB2">
-        <v>0.9508832763851388</v>
+        <v>0.92987055794564</v>
       </c>
       <c r="AC2">
-        <v>0.9474684021227406</v>
+        <v>0.9340487530538896</v>
       </c>
       <c r="AD2">
-        <v>0.9403448965785712</v>
+        <v>0.959146876312074</v>
       </c>
       <c r="AE2">
+        <v>0.9604818992355521</v>
+      </c>
+      <c r="AF2">
+        <v>0.9563002266490797</v>
+      </c>
+      <c r="AG2">
+        <v>0.9207496279810332</v>
+      </c>
+      <c r="AH2">
+        <v>0.919568257581576</v>
+      </c>
+      <c r="AI2">
+        <v>0.9507292390214892</v>
+      </c>
+      <c r="AJ2">
+        <v>0.943976650428541</v>
+      </c>
+      <c r="AK2">
         <v>0.9365185346616176</v>
       </c>
-      <c r="AF2">
+      <c r="AL2">
+        <v>0.941776422936798</v>
+      </c>
+      <c r="AM2">
         <v>0.9531417192123284</v>
       </c>
-      <c r="AG2">
-        <v>0.8891456316615813</v>
-      </c>
-      <c r="AH2">
+      <c r="AN2">
         <v>0.9508517369125632</v>
       </c>
-      <c r="AI2">
-        <v>0.918155293169436</v>
-      </c>
-      <c r="AJ2">
+      <c r="AO2">
         <v>0.9301352314870076</v>
       </c>
-      <c r="AK2">
+      <c r="AP2">
+        <v>0.9526056478316288</v>
+      </c>
+      <c r="AQ2">
+        <v>0.937815855761028</v>
+      </c>
+      <c r="AR2">
         <v>0.9230079933618336</v>
       </c>
-      <c r="AL2">
-        <v>0.9340487530538896</v>
-      </c>
-      <c r="AM2">
-        <v>0.9548109084282148</v>
-      </c>
-      <c r="AN2">
-        <v>0.9593023590450662</v>
-      </c>
-      <c r="AO2">
-        <v>0.9222097430273972</v>
-      </c>
-      <c r="AP2">
-        <v>0.969037850816586</v>
-      </c>
-      <c r="AQ2">
-        <v>0.9534706574927524</v>
-      </c>
-      <c r="AR2">
-        <v>0.9568127206783884</v>
-      </c>
       <c r="AS2">
-        <v>0.9453146616347018</v>
+        <v>0.8524046597018424</v>
       </c>
       <c r="AT2">
-        <v>0.959146876312074</v>
+        <v>0.9361000580943012</v>
       </c>
       <c r="AU2">
-        <v>0.9563002266490797</v>
+        <v>0.9241389499708084</v>
       </c>
       <c r="AV2">
-        <v>0.9207496279810332</v>
+        <v>0.9498010158820598</v>
       </c>
       <c r="AW2">
-        <v>0.919568257581576</v>
+        <v>0.9491356423864163</v>
       </c>
       <c r="AX2">
-        <v>0.9507292390214892</v>
+        <v>0.9395852396812904</v>
       </c>
       <c r="AY2">
-        <v>0.9569855882018056</v>
+        <v>0.867600598103853</v>
       </c>
       <c r="AZ2">
-        <v>0.8911428665716115</v>
+        <v>0.9453254395085348</v>
       </c>
       <c r="BA2">
+        <v>0.9207776852258728</v>
+      </c>
+      <c r="BB2">
+        <v>0.9277138453430056</v>
+      </c>
+      <c r="BC2">
+        <v>0.9470337618592684</v>
+      </c>
+      <c r="BD2">
+        <v>0.9433584316251772</v>
+      </c>
+      <c r="BE2">
+        <v>0.9177266672776834</v>
+      </c>
+      <c r="BF2">
+        <v>0.9440414107924442</v>
+      </c>
+      <c r="BG2">
+        <v>0.9554540217402758</v>
+      </c>
+      <c r="BH2">
+        <v>0.9388197261964688</v>
+      </c>
+      <c r="BI2">
+        <v>0.8912389949365913</v>
+      </c>
+      <c r="BJ2">
+        <v>0.9474031472217552</v>
+      </c>
+      <c r="BK2">
+        <v>0.9224985306796732</v>
+      </c>
+      <c r="BL2">
         <v>0.9005134441989562</v>
       </c>
-      <c r="BB2">
-        <v>0.9323418871819436</v>
-      </c>
-      <c r="BC2">
-        <v>0.9575626989075778</v>
-      </c>
-      <c r="BD2">
-        <v>0.9317701937353916</v>
-      </c>
-      <c r="BE2">
-        <v>0.929031744384314</v>
-      </c>
-      <c r="BF2">
-        <v>0.9404209762608552</v>
-      </c>
-      <c r="BG2">
-        <v>0.9425137065831916</v>
-      </c>
-      <c r="BH2">
-        <v>0.8944486170571931</v>
-      </c>
-      <c r="BI2">
-        <v>0.9442189593381232</v>
-      </c>
-      <c r="BJ2">
-        <v>0.9322680735451768</v>
-      </c>
-      <c r="BK2">
-        <v>0.9306059188495096</v>
-      </c>
-      <c r="BL2">
-        <v>0.9435248408151088</v>
-      </c>
       <c r="BM2">
-        <v>0.9261498297293228</v>
+        <v>0.936000445796754</v>
       </c>
       <c r="BN2">
-        <v>0.9315609720104608</v>
+        <v>0.926717022486935</v>
       </c>
       <c r="BO2">
-        <v>0.9300233095289814</v>
+        <v>0.9352123775836084</v>
       </c>
       <c r="BP2">
-        <v>0.9118227744640311</v>
+        <v>0.9106625085387527</v>
       </c>
       <c r="BQ2">
-        <v>0.9385366922467476</v>
+        <v>0.9501205925678494</v>
       </c>
       <c r="BR2">
-        <v>0.9437308691870778</v>
+        <v>0.9203307594643212</v>
       </c>
       <c r="BS2">
-        <v>0.9066047294526052</v>
+        <v>0.8661664521338923</v>
       </c>
       <c r="BT2">
-        <v>0.9028209207987776</v>
+        <v>0.9455070904327464</v>
       </c>
       <c r="BU2">
-        <v>0.9271924259831336</v>
+        <v>0.9529089784095915</v>
       </c>
       <c r="BV2">
-        <v>0.9456932931973639</v>
+        <v>0.9304989791153584</v>
       </c>
       <c r="BW2">
-        <v>0.9263503387376768</v>
+        <v>0.9383007865443402</v>
       </c>
       <c r="BX2">
-        <v>0.9485043915893298</v>
+        <v>0.9430168458658944</v>
       </c>
       <c r="BY2">
-        <v>0.9185865544120312</v>
+        <v>0.8494090390526809</v>
       </c>
       <c r="BZ2">
-        <v>0.8957269647837345</v>
+        <v>0.9602198962856529</v>
       </c>
       <c r="CA2">
-        <v>0.9508471969279616</v>
+        <v>0.941507232464361</v>
       </c>
       <c r="CB2">
-        <v>0.9608679094070468</v>
+        <v>0.8435831605588557</v>
       </c>
       <c r="CC2">
-        <v>0.9053700607672724</v>
+        <v>0.9494854660049796</v>
       </c>
       <c r="CD2">
-        <v>0.9265181428350888</v>
+        <v>0.9436922318043</v>
       </c>
       <c r="CE2">
-        <v>0.934061800998046</v>
+        <v>0.95260780024457</v>
       </c>
       <c r="CF2">
-        <v>0.94349356303049</v>
+        <v>0.8846650090738623</v>
       </c>
       <c r="CG2">
-        <v>0.9460240521703061</v>
+        <v>0.8365791200933315</v>
       </c>
       <c r="CH2">
-        <v>0.9314559178978948</v>
+        <v>0.9505434082302642</v>
       </c>
       <c r="CI2">
-        <v>0.9212145521930616</v>
+        <v>0.8900627231788525</v>
       </c>
       <c r="CJ2">
-        <v>0.9612879064254016</v>
+        <v>0.9107982384856844</v>
       </c>
       <c r="CK2">
-        <v>0.9422696727586092</v>
+        <v>0.9198767891777004</v>
       </c>
       <c r="CL2">
-        <v>0.9178936507493428</v>
+        <v>0.8822836385392137</v>
       </c>
       <c r="CM2">
-        <v>0.9169910480204306</v>
+        <v>0.90796606451749</v>
       </c>
       <c r="CN2">
-        <v>0.9431506097852852</v>
+        <v>0.8508603171806147</v>
       </c>
       <c r="CO2">
-        <v>0.9350004711172292</v>
+        <v>0.9226045642529922</v>
       </c>
       <c r="CP2">
-        <v>0.9174869714192386</v>
+        <v>0.9012708822162424</v>
       </c>
       <c r="CQ2">
-        <v>0.9602977371163076</v>
+        <v>0.9271655577835908</v>
       </c>
       <c r="CR2">
-        <v>0.879489965864904</v>
+        <v>0.9090262216882604</v>
       </c>
       <c r="CS2">
-        <v>0.9090262216882604</v>
+        <v>0.8911025919439359</v>
+      </c>
+      <c r="CT2">
+        <v>0.960387342928312</v>
+      </c>
+      <c r="CU2">
+        <v>0.8921840994907945</v>
+      </c>
+      <c r="CV2">
+        <v>0.9160203847369276</v>
+      </c>
+      <c r="CW2">
+        <v>0.9392860713599251</v>
       </c>
     </row>
-    <row r="3" spans="1:97">
+    <row r="3" spans="1:101">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
         <v>0.9422350119731652</v>
       </c>
+      <c r="C3">
+        <v>0.9107833115966644</v>
+      </c>
+      <c r="D3">
+        <v>0.9128050304760884</v>
+      </c>
       <c r="E3">
+        <v>0.9440271194124616</v>
+      </c>
+      <c r="F3">
         <v>0.9539365486526132</v>
       </c>
-      <c r="F3">
+      <c r="G3">
+        <v>0.9485987384779492</v>
+      </c>
+      <c r="H3">
         <v>0.937065932288594</v>
       </c>
-      <c r="H3">
+      <c r="I3">
+        <v>0.9042954688103064</v>
+      </c>
+      <c r="J3">
         <v>0.9593217526325404</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>0.9372721947338832</v>
       </c>
-      <c r="K3">
-        <v>0.9521480104771364</v>
+      <c r="L3">
+        <v>0.933785167914588</v>
       </c>
       <c r="M3">
         <v>0.9451820870149366</v>
       </c>
       <c r="N3">
+        <v>0.9521480104771364</v>
+      </c>
+      <c r="O3">
+        <v>0.9391735390130468</v>
+      </c>
+      <c r="P3">
         <v>0.95539021416493</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>0.9387502129361101</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>0.9596264176501916</v>
       </c>
       <c r="S3">
-        <v>0.9504163526812184</v>
+        <v>0.9182474228194476</v>
+      </c>
+      <c r="T3">
+        <v>0.9214193639916536</v>
+      </c>
+      <c r="U3">
+        <v>0.9356400839679482</v>
+      </c>
+      <c r="V3">
+        <v>0.9352766600417752</v>
       </c>
       <c r="W3">
         <v>0.9599946184816168</v>
       </c>
+      <c r="X3">
+        <v>0.9450207562022898</v>
+      </c>
       <c r="Y3">
         <v>0.9565100398328574</v>
       </c>
@@ -1002,350 +1059,842 @@
         <v>0.9561324206675148</v>
       </c>
       <c r="AA3">
-        <v>0.9452493137152724</v>
+        <v>0.9155537184410804</v>
       </c>
       <c r="AB3">
-        <v>0.9581309724651283</v>
+        <v>0.9199336326072109</v>
+      </c>
+      <c r="AC3">
+        <v>0.8926841857204604</v>
+      </c>
+      <c r="AD3">
+        <v>0.9541024025774916</v>
+      </c>
+      <c r="AF3">
+        <v>0.9613293750783268</v>
+      </c>
+      <c r="AG3">
+        <v>0.9324357062070612</v>
+      </c>
+      <c r="AH3">
+        <v>0.8836953209841252</v>
+      </c>
+      <c r="AI3">
+        <v>0.9558392341591396</v>
+      </c>
+      <c r="AJ3">
+        <v>0.9507155316119984</v>
+      </c>
+      <c r="AL3">
+        <v>0.9354806707304654</v>
+      </c>
+      <c r="AM3">
+        <v>0.929683688954216</v>
+      </c>
+      <c r="AN3">
+        <v>0.9467622614733526</v>
+      </c>
+      <c r="AO3">
+        <v>0.9535730152465252</v>
+      </c>
+      <c r="AP3">
+        <v>0.9545778572701348</v>
       </c>
       <c r="AQ3">
-        <v>0.956123974652267</v>
+        <v>0.93761244447985</v>
       </c>
       <c r="AR3">
-        <v>0.9542797028980808</v>
+        <v>0.9202274745826244</v>
       </c>
       <c r="AS3">
-        <v>0.9478538301226134</v>
+        <v>0.9058368296374611</v>
       </c>
       <c r="AT3">
-        <v>0.9541024025774916</v>
+        <v>0.9521897882213444</v>
       </c>
       <c r="AU3">
-        <v>0.9613293750783268</v>
+        <v>0.9096702061164867</v>
+      </c>
+      <c r="AV3">
+        <v>0.954116360185962</v>
       </c>
       <c r="AX3">
-        <v>0.9558392341591396</v>
+        <v>0.8852982586767205</v>
+      </c>
+      <c r="AY3">
+        <v>0.8925021323892014</v>
+      </c>
+      <c r="AZ3">
+        <v>0.9515618970036503</v>
+      </c>
+      <c r="BA3">
+        <v>0.9430218885460896</v>
       </c>
       <c r="BB3">
-        <v>0.9472115866128824</v>
+        <v>0.9443847417484524</v>
       </c>
       <c r="BC3">
-        <v>0.9547042409205166</v>
+        <v>0.9172955140034814</v>
+      </c>
+      <c r="BD3">
+        <v>0.948406971078338</v>
+      </c>
+      <c r="BE3">
+        <v>0.9089341693730342</v>
       </c>
       <c r="BF3">
-        <v>0.9552040249135816</v>
+        <v>0.961753087315726</v>
+      </c>
+      <c r="BG3">
+        <v>0.9579187768432282</v>
+      </c>
+      <c r="BH3">
+        <v>0.9570930814689966</v>
       </c>
       <c r="BI3">
-        <v>0.9558781739353416</v>
+        <v>0.9390038882829752</v>
       </c>
       <c r="BJ3">
-        <v>0.9516685254599376</v>
+        <v>0.9424689466943228</v>
       </c>
       <c r="BK3">
-        <v>0.9460556716849</v>
+        <v>0.9228567908955052</v>
+      </c>
+      <c r="BM3">
+        <v>0.9506779406424052</v>
+      </c>
+      <c r="BN3">
+        <v>0.9422332904419106</v>
       </c>
       <c r="BO3">
-        <v>0.9533213719551106</v>
+        <v>0.9506626487735323</v>
       </c>
       <c r="BP3">
-        <v>0.9184787513813352</v>
+        <v>0.940731687132948</v>
       </c>
       <c r="BQ3">
-        <v>0.959215257444872</v>
+        <v>0.9484973995533704</v>
       </c>
       <c r="BR3">
-        <v>0.9529903300506768</v>
+        <v>0.9424635685737396</v>
       </c>
       <c r="BS3">
-        <v>0.9412560944240986</v>
+        <v>0.9221488388948792</v>
+      </c>
+      <c r="BT3">
+        <v>0.9538475050720476</v>
       </c>
       <c r="BU3">
-        <v>0.949474743205366</v>
+        <v>0.9559642955735028</v>
       </c>
       <c r="BV3">
-        <v>0.9463596811827942</v>
+        <v>0.8609046096257212</v>
+      </c>
+      <c r="BW3">
+        <v>0.959557245455122</v>
+      </c>
+      <c r="BX3">
+        <v>0.9558276090614471</v>
+      </c>
+      <c r="BY3">
+        <v>0.8561564426771131</v>
+      </c>
+      <c r="BZ3">
+        <v>0.9507323482572122</v>
+      </c>
+      <c r="CA3">
+        <v>0.918835376689539</v>
+      </c>
+      <c r="CB3">
+        <v>0.8494379768593466</v>
+      </c>
+      <c r="CC3">
+        <v>0.9437112904639152</v>
+      </c>
+      <c r="CD3">
+        <v>0.9348260879246286</v>
+      </c>
+      <c r="CE3">
+        <v>0.8769011433591999</v>
+      </c>
+      <c r="CF3">
+        <v>0.8891289236713185</v>
       </c>
       <c r="CG3">
-        <v>0.9453475473492096</v>
+        <v>0.9173144627029072</v>
+      </c>
+      <c r="CH3">
+        <v>0.917856528026996</v>
+      </c>
+      <c r="CI3">
+        <v>0.8928100473165531</v>
       </c>
       <c r="CK3">
-        <v>0.9240621000403459</v>
+        <v>0.915058196277872</v>
+      </c>
+      <c r="CL3">
+        <v>0.9197392570605396</v>
+      </c>
+      <c r="CM3">
+        <v>0.9270796992080366</v>
       </c>
       <c r="CN3">
-        <v>0.9207244483630834</v>
+        <v>0.9308626008805354</v>
+      </c>
+      <c r="CO3">
+        <v>0.9188000328510656</v>
+      </c>
+      <c r="CP3">
+        <v>0.8972758126081267</v>
+      </c>
+      <c r="CQ3">
+        <v>0.9390634177824054</v>
+      </c>
+      <c r="CR3">
+        <v>0.94446717775736</v>
+      </c>
+      <c r="CS3">
+        <v>0.945641130442707</v>
+      </c>
+      <c r="CT3">
+        <v>0.9255366688208068</v>
+      </c>
+      <c r="CU3">
+        <v>0.8632152630511081</v>
+      </c>
+      <c r="CV3">
+        <v>0.9435333262476144</v>
       </c>
     </row>
-    <row r="4" spans="1:97">
+    <row r="4" spans="1:101">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
         <v>0.9483778910962894</v>
       </c>
+      <c r="C4">
+        <v>0.9263269575037884</v>
+      </c>
+      <c r="D4">
+        <v>0.9233550287663872</v>
+      </c>
       <c r="E4">
+        <v>0.9534417562394258</v>
+      </c>
+      <c r="F4">
         <v>0.95990668603299</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>0.9419834749553984</v>
       </c>
-      <c r="H4">
+      <c r="I4">
+        <v>0.960872334241016</v>
+      </c>
+      <c r="J4">
         <v>0.9659657402445044</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>0.9489321066258154</v>
       </c>
-      <c r="K4">
-        <v>0.9586512757415512</v>
+      <c r="L4">
+        <v>0.9412113798557524</v>
       </c>
       <c r="M4">
         <v>0.9521423004887504</v>
       </c>
       <c r="N4">
+        <v>0.9586512757415512</v>
+      </c>
+      <c r="O4">
+        <v>0.924169493091987</v>
+      </c>
+      <c r="P4">
         <v>0.9619183500903526</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>0.9497634287317512</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>0.96743509281593</v>
       </c>
       <c r="S4">
-        <v>0.960861331210967</v>
+        <v>0.928194829266037</v>
+      </c>
+      <c r="T4">
+        <v>0.93248444983748</v>
+      </c>
+      <c r="U4">
+        <v>0.8938279123475004</v>
+      </c>
+      <c r="V4">
+        <v>0.924569921788358</v>
       </c>
       <c r="W4">
         <v>0.9664009118968528</v>
       </c>
+      <c r="X4">
+        <v>0.9293906414323542</v>
+      </c>
       <c r="Y4">
         <v>0.9629445816461364</v>
       </c>
       <c r="Z4">
         <v>0.962516125330275</v>
       </c>
+      <c r="AA4">
+        <v>0.9192186481847572</v>
+      </c>
       <c r="AB4">
-        <v>0.9555338961678074</v>
+        <v>0.9494740993802256</v>
+      </c>
+      <c r="AC4">
+        <v>0.8883835583684951</v>
+      </c>
+      <c r="AD4">
+        <v>0.9597552932590452</v>
+      </c>
+      <c r="AF4">
+        <v>0.9584593183051284</v>
+      </c>
+      <c r="AG4">
+        <v>0.9409774887479614</v>
       </c>
       <c r="AH4">
+        <v>0.8925542843142104</v>
+      </c>
+      <c r="AI4">
+        <v>0.9541421000699658</v>
+      </c>
+      <c r="AJ4">
+        <v>0.9561556773934414</v>
+      </c>
+      <c r="AL4">
+        <v>0.9335903640368348</v>
+      </c>
+      <c r="AM4">
+        <v>0.9325387227868694</v>
+      </c>
+      <c r="AN4">
         <v>0.9392949420170702</v>
       </c>
-      <c r="AJ4">
+      <c r="AO4">
         <v>0.9438075765559276</v>
       </c>
-      <c r="AK4">
+      <c r="AP4">
+        <v>0.9517701429100835</v>
+      </c>
+      <c r="AQ4">
+        <v>0.934905606379098</v>
+      </c>
+      <c r="AR4">
         <v>0.9455998341052484</v>
       </c>
-      <c r="AM4">
-        <v>0.9492652688013812</v>
-      </c>
-      <c r="AQ4">
-        <v>0.9559635757749776</v>
-      </c>
-      <c r="AR4">
-        <v>0.9512668780566824</v>
-      </c>
-      <c r="AS4">
-        <v>0.9449791400597258</v>
-      </c>
       <c r="AT4">
-        <v>0.9597552932590452</v>
+        <v>0.9517864633922364</v>
       </c>
       <c r="AU4">
-        <v>0.9584593183051284</v>
-      </c>
-      <c r="AX4">
-        <v>0.9541421000699658</v>
+        <v>0.9492039661395558</v>
+      </c>
+      <c r="AV4">
+        <v>0.9523239050070268</v>
+      </c>
+      <c r="AZ4">
+        <v>0.9516174106312189</v>
+      </c>
+      <c r="BA4">
+        <v>0.9398987511932102</v>
       </c>
       <c r="BB4">
-        <v>0.9490297325501428</v>
+        <v>0.9400835538562228</v>
       </c>
       <c r="BC4">
-        <v>0.9527587078414405</v>
+        <v>0.9060507913338176</v>
+      </c>
+      <c r="BD4">
+        <v>0.9293500763805584</v>
+      </c>
+      <c r="BE4">
+        <v>0.9031053750280232</v>
+      </c>
+      <c r="BF4">
+        <v>0.9613758747572876</v>
+      </c>
+      <c r="BG4">
+        <v>0.9577689363479108</v>
+      </c>
+      <c r="BH4">
+        <v>0.9447210259631628</v>
       </c>
       <c r="BI4">
-        <v>0.9578444538460976</v>
+        <v>0.9380902053279117</v>
       </c>
       <c r="BJ4">
-        <v>0.9422019523803676</v>
+        <v>0.9257306600099134</v>
       </c>
       <c r="BK4">
-        <v>0.941985379116683</v>
+        <v>0.9009803475367698</v>
+      </c>
+      <c r="BL4">
+        <v>0.881749901821265</v>
+      </c>
+      <c r="BM4">
+        <v>0.937171702020029</v>
+      </c>
+      <c r="BN4">
+        <v>0.8726108865810279</v>
+      </c>
+      <c r="BO4">
+        <v>0.9508269247989104</v>
       </c>
       <c r="BP4">
-        <v>0.9181515491070562</v>
-      </c>
-      <c r="BS4">
-        <v>0.9378098642476844</v>
+        <v>0.9345255619901972</v>
+      </c>
+      <c r="BQ4">
+        <v>0.9489965137432916</v>
+      </c>
+      <c r="BR4">
+        <v>0.937975292141756</v>
+      </c>
+      <c r="BT4">
+        <v>0.9540778254485588</v>
       </c>
       <c r="BU4">
-        <v>0.9493245086490318</v>
+        <v>0.9536980180497732</v>
       </c>
       <c r="BV4">
-        <v>0.953781917412272</v>
+        <v>0.8696244687490312</v>
+      </c>
+      <c r="BW4">
+        <v>0.9599628779816116</v>
+      </c>
+      <c r="BX4">
+        <v>0.94585017913988</v>
+      </c>
+      <c r="BY4">
+        <v>0.8694641833057886</v>
+      </c>
+      <c r="BZ4">
+        <v>0.947421554171594</v>
+      </c>
+      <c r="CA4">
+        <v>0.9283534156878006</v>
+      </c>
+      <c r="CB4">
+        <v>0.8717717658993417</v>
+      </c>
+      <c r="CC4">
+        <v>0.9363688310256087</v>
+      </c>
+      <c r="CD4">
+        <v>0.9314281191377014</v>
+      </c>
+      <c r="CE4">
+        <v>0.8734669918259459</v>
       </c>
       <c r="CF4">
-        <v>0.9327125436581264</v>
+        <v>0.8993685217328631</v>
+      </c>
+      <c r="CG4">
+        <v>0.8600632054598806</v>
       </c>
       <c r="CH4">
-        <v>0.916867323254852</v>
+        <v>0.9171698101499568</v>
+      </c>
+      <c r="CI4">
+        <v>0.9085481746824404</v>
       </c>
       <c r="CK4">
-        <v>0.9309003632997404</v>
+        <v>0.9143429414588098</v>
+      </c>
+      <c r="CL4">
+        <v>0.9304670697434192</v>
+      </c>
+      <c r="CM4">
+        <v>0.8865555762891748</v>
       </c>
       <c r="CN4">
-        <v>0.9186617130844827</v>
+        <v>0.9037184459937588</v>
+      </c>
+      <c r="CO4">
+        <v>0.8921300649799935</v>
+      </c>
+      <c r="CP4">
+        <v>0.8947836037139048</v>
+      </c>
+      <c r="CQ4">
+        <v>0.9423157509583896</v>
+      </c>
+      <c r="CR4">
+        <v>0.9327972777793652</v>
+      </c>
+      <c r="CS4">
+        <v>0.931813455588584</v>
+      </c>
+      <c r="CT4">
+        <v>0.9546936770232588</v>
+      </c>
+      <c r="CU4">
+        <v>0.8990322967502706</v>
+      </c>
+      <c r="CV4">
+        <v>0.9329503565454926</v>
+      </c>
+      <c r="CW4">
+        <v>0.9423353437496093</v>
       </c>
     </row>
-    <row r="5" spans="1:97">
+    <row r="5" spans="1:101">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
         <v>0.9438815993513128</v>
       </c>
+      <c r="C5">
+        <v>0.9152341753451754</v>
+      </c>
       <c r="D5">
+        <v>0.8986105880284605</v>
+      </c>
+      <c r="E5">
         <v>0.9475239603519364</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.9554038505660072</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>0.9458064830420628</v>
       </c>
-      <c r="H5">
+      <c r="I5">
+        <v>0.9268758678106096</v>
+      </c>
+      <c r="J5">
         <v>0.9602911188142066</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>0.9413640881931832</v>
       </c>
-      <c r="K5">
-        <v>0.9532549816416468</v>
+      <c r="L5">
+        <v>0.9155190179338788</v>
       </c>
       <c r="M5">
         <v>0.9369762945547266</v>
       </c>
       <c r="N5">
+        <v>0.9532549816416468</v>
+      </c>
+      <c r="O5">
+        <v>0.907024451015182</v>
+      </c>
+      <c r="P5">
         <v>0.9553176259908897</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>0.9366722353709112</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>0.9635148084595738</v>
       </c>
       <c r="S5">
-        <v>0.9536045920142172</v>
+        <v>0.9076971133158542</v>
+      </c>
+      <c r="T5">
+        <v>0.9240378934887854</v>
+      </c>
+      <c r="U5">
+        <v>0.8786644232110221</v>
+      </c>
+      <c r="V5">
+        <v>0.8833146492401771</v>
       </c>
       <c r="W5">
         <v>0.9615786704162071</v>
       </c>
+      <c r="X5">
+        <v>0.9174738983267564</v>
+      </c>
       <c r="Y5">
         <v>0.9589318510983192</v>
       </c>
       <c r="Z5">
         <v>0.9578336042609522</v>
       </c>
+      <c r="AA5">
+        <v>0.921496057345577</v>
+      </c>
       <c r="AB5">
-        <v>0.9515796334777332</v>
+        <v>0.919615792710552</v>
+      </c>
+      <c r="AC5">
+        <v>0.9039437376250464</v>
+      </c>
+      <c r="AD5">
+        <v>0.9488064594042392</v>
+      </c>
+      <c r="AF5">
+        <v>0.9517887513092927</v>
+      </c>
+      <c r="AG5">
+        <v>0.9308168885860832</v>
+      </c>
+      <c r="AH5">
+        <v>0.8851764253707282</v>
+      </c>
+      <c r="AI5">
+        <v>0.948047572733175</v>
+      </c>
+      <c r="AJ5">
+        <v>0.9478968564968828</v>
+      </c>
+      <c r="AL5">
+        <v>0.9358433153887186</v>
+      </c>
+      <c r="AM5">
+        <v>0.928710965314434</v>
+      </c>
+      <c r="AN5">
+        <v>0.9360084970816224</v>
+      </c>
+      <c r="AO5">
+        <v>0.9410965614149792</v>
+      </c>
+      <c r="AP5">
+        <v>0.948045022353578</v>
       </c>
       <c r="AQ5">
-        <v>0.950023482422665</v>
+        <v>0.9231758189515648</v>
       </c>
       <c r="AR5">
-        <v>0.948042596510672</v>
+        <v>0.9210940225841664</v>
       </c>
       <c r="AS5">
-        <v>0.9357867462118288</v>
+        <v>0.8900293968533399</v>
       </c>
       <c r="AT5">
-        <v>0.9488064594042392</v>
+        <v>0.9469316687473344</v>
       </c>
       <c r="AU5">
-        <v>0.9517887513092927</v>
-      </c>
-      <c r="AX5">
-        <v>0.948047572733175</v>
+        <v>0.9008796047950496</v>
+      </c>
+      <c r="AV5">
+        <v>0.9471893858087044</v>
+      </c>
+      <c r="AY5">
+        <v>0.8660108182092338</v>
+      </c>
+      <c r="AZ5">
+        <v>0.9493476409850136</v>
+      </c>
+      <c r="BA5">
+        <v>0.9415732341647004</v>
       </c>
       <c r="BB5">
-        <v>0.9526254539775656</v>
+        <v>0.9404166328526083</v>
       </c>
       <c r="BC5">
-        <v>0.953989816814352</v>
+        <v>0.9108238951703862</v>
+      </c>
+      <c r="BD5">
+        <v>0.935540301181387</v>
       </c>
       <c r="BE5">
-        <v>0.942354336949846</v>
+        <v>0.8753403642325531</v>
+      </c>
+      <c r="BF5">
+        <v>0.9617185060761576</v>
+      </c>
+      <c r="BG5">
+        <v>0.9511293244337724</v>
+      </c>
+      <c r="BH5">
+        <v>0.924224478447519</v>
       </c>
       <c r="BI5">
-        <v>0.9585573053551784</v>
+        <v>0.9345175354854136</v>
+      </c>
+      <c r="BJ5">
+        <v>0.9168521161283574</v>
       </c>
       <c r="BK5">
-        <v>0.9403131220380768</v>
+        <v>0.867679749174661</v>
+      </c>
+      <c r="BM5">
+        <v>0.941844886702661</v>
+      </c>
+      <c r="BN5">
+        <v>0.910212901551492</v>
+      </c>
+      <c r="BO5">
+        <v>0.9474095281885068</v>
       </c>
       <c r="BP5">
-        <v>0.9201742321039724</v>
-      </c>
-      <c r="BS5">
-        <v>0.9395027750294488</v>
+        <v>0.9404220430310822</v>
+      </c>
+      <c r="BQ5">
+        <v>0.9492941169525412</v>
+      </c>
+      <c r="BR5">
+        <v>0.9398782397034866</v>
+      </c>
+      <c r="BT5">
+        <v>0.9559635944273086</v>
       </c>
       <c r="BU5">
-        <v>0.9500927546323428</v>
+        <v>0.9551497449736226</v>
       </c>
       <c r="BV5">
-        <v>0.9427151695304512</v>
+        <v>0.8861663613324389</v>
+      </c>
+      <c r="BW5">
+        <v>0.96005579559376</v>
+      </c>
+      <c r="BX5">
+        <v>0.9489112652452744</v>
+      </c>
+      <c r="BY5">
+        <v>0.870001893079604</v>
       </c>
       <c r="BZ5">
-        <v>0.9510923324251442</v>
+        <v>0.948326952199198</v>
+      </c>
+      <c r="CA5">
+        <v>0.9218002017513388</v>
+      </c>
+      <c r="CB5">
+        <v>0.8793310699818992</v>
       </c>
       <c r="CC5">
-        <v>0.9500105473935588</v>
+        <v>0.9523566582919196</v>
+      </c>
+      <c r="CD5">
+        <v>0.936010519610924</v>
+      </c>
+      <c r="CE5">
+        <v>0.8930912911896853</v>
+      </c>
+      <c r="CF5">
+        <v>0.9228193842615616</v>
+      </c>
+      <c r="CG5">
+        <v>0.9269907635243122</v>
       </c>
       <c r="CH5">
-        <v>0.9433239966171642</v>
+        <v>0.9212576934364588</v>
+      </c>
+      <c r="CI5">
+        <v>0.9022382047404574</v>
       </c>
       <c r="CK5">
-        <v>0.9358902489562836</v>
+        <v>0.9248444344239204</v>
+      </c>
+      <c r="CL5">
+        <v>0.8937732478214211</v>
+      </c>
+      <c r="CM5">
+        <v>0.9294654484720752</v>
+      </c>
+      <c r="CN5">
+        <v>0.9355856319649992</v>
+      </c>
+      <c r="CO5">
+        <v>0.9270957675349298</v>
       </c>
       <c r="CP5">
-        <v>0.952281746803666</v>
+        <v>0.8994394184026292</v>
+      </c>
+      <c r="CQ5">
+        <v>0.9476002207741996</v>
+      </c>
+      <c r="CR5">
+        <v>0.9527239347596352</v>
       </c>
       <c r="CS5">
-        <v>0.9527239347596352</v>
+        <v>0.9490522845368016</v>
+      </c>
+      <c r="CT5">
+        <v>0.9359862351276038</v>
+      </c>
+      <c r="CU5">
+        <v>0.8769073324943396</v>
+      </c>
+      <c r="CV5">
+        <v>0.9521000127537268</v>
+      </c>
+      <c r="CW5">
+        <v>0.9575485275176872</v>
       </c>
     </row>
-    <row r="6" spans="1:97">
+    <row r="6" spans="1:101">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
         <v>0.9431210877715412</v>
       </c>
+      <c r="C6">
+        <v>0.925691967425003</v>
+      </c>
+      <c r="D6">
+        <v>0.8894489015526517</v>
+      </c>
       <c r="E6">
+        <v>0.9448926374966388</v>
+      </c>
+      <c r="F6">
         <v>0.958412793928957</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>0.9517744304137812</v>
       </c>
-      <c r="H6">
+      <c r="I6">
+        <v>0.8464168053768023</v>
+      </c>
+      <c r="J6">
         <v>0.9597152578948898</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>0.9492574230138904</v>
       </c>
-      <c r="K6">
-        <v>0.9518589092630482</v>
+      <c r="L6">
+        <v>0.907916794472499</v>
       </c>
       <c r="M6">
         <v>0.930347418748676</v>
       </c>
       <c r="N6">
+        <v>0.9518589092630482</v>
+      </c>
+      <c r="O6">
+        <v>0.8822330357701672</v>
+      </c>
+      <c r="P6">
         <v>0.953824429140998</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
+        <v>0.9310951309140186</v>
+      </c>
+      <c r="R6">
         <v>0.964750952142423</v>
       </c>
       <c r="S6">
-        <v>0.9510770248510912</v>
+        <v>0.9052506464646064</v>
+      </c>
+      <c r="T6">
+        <v>0.9306847395392812</v>
+      </c>
+      <c r="U6">
+        <v>0.8801247918112826</v>
+      </c>
+      <c r="V6">
+        <v>0.8404070668342863</v>
       </c>
       <c r="W6">
         <v>0.9579266931016278</v>
       </c>
+      <c r="X6">
+        <v>0.8274368284064733</v>
+      </c>
       <c r="Y6">
         <v>0.9581178477808152</v>
       </c>
@@ -1353,204 +1902,513 @@
         <v>0.9599123737175268</v>
       </c>
       <c r="AA6">
-        <v>0.938327520780566</v>
+        <v>0.9195780894098706</v>
       </c>
       <c r="AB6">
-        <v>0.9589440913307016</v>
+        <v>0.9068695240006712</v>
+      </c>
+      <c r="AC6">
+        <v>0.891049823383647</v>
+      </c>
+      <c r="AD6">
+        <v>0.9492424975949796</v>
+      </c>
+      <c r="AF6">
+        <v>0.9587053658540746</v>
+      </c>
+      <c r="AG6">
+        <v>0.925641572244601</v>
+      </c>
+      <c r="AH6">
+        <v>0.9147955762844718</v>
+      </c>
+      <c r="AI6">
+        <v>0.9525694735815118</v>
+      </c>
+      <c r="AJ6">
+        <v>0.9521638228152458</v>
+      </c>
+      <c r="AK6">
+        <v>0.8970493490311857</v>
+      </c>
+      <c r="AL6">
+        <v>0.9264915305928744</v>
+      </c>
+      <c r="AM6">
+        <v>0.9340020983100829</v>
+      </c>
+      <c r="AN6">
+        <v>0.9459602207767304</v>
+      </c>
+      <c r="AO6">
+        <v>0.9446933967980961</v>
+      </c>
+      <c r="AP6">
+        <v>0.9547110753469004</v>
       </c>
       <c r="AQ6">
-        <v>0.9570215352363258</v>
+        <v>0.924656753428551</v>
       </c>
       <c r="AR6">
-        <v>0.9504336137551934</v>
+        <v>0.9146480176270332</v>
       </c>
       <c r="AS6">
-        <v>0.9395275335782532</v>
+        <v>0.8851979826752084</v>
       </c>
       <c r="AT6">
-        <v>0.9492424975949796</v>
+        <v>0.9548709892134724</v>
       </c>
       <c r="AU6">
-        <v>0.9587053658540746</v>
+        <v>0.9063406001364586</v>
+      </c>
+      <c r="AV6">
+        <v>0.9535148788959044</v>
+      </c>
+      <c r="AW6">
+        <v>0.8873713462686199</v>
       </c>
       <c r="AX6">
-        <v>0.9525694735815118</v>
+        <v>0.8907733864742314</v>
+      </c>
+      <c r="AY6">
+        <v>0.844652706484487</v>
       </c>
       <c r="AZ6">
-        <v>0.9268976421895558</v>
+        <v>0.9393936722679548</v>
+      </c>
+      <c r="BA6">
+        <v>0.9270255419577118</v>
       </c>
       <c r="BB6">
-        <v>0.9446049843758318</v>
+        <v>0.9335668877377822</v>
+      </c>
+      <c r="BC6">
+        <v>0.9053024883621178</v>
+      </c>
+      <c r="BD6">
+        <v>0.9324801940423748</v>
       </c>
       <c r="BE6">
-        <v>0.9351582536965144</v>
+        <v>0.8844960008678777</v>
+      </c>
+      <c r="BF6">
+        <v>0.9535531721551924</v>
+      </c>
+      <c r="BG6">
+        <v>0.943842299041494</v>
+      </c>
+      <c r="BH6">
+        <v>0.9223862910610892</v>
       </c>
       <c r="BI6">
-        <v>0.9498989917955206</v>
+        <v>0.9269518413515794</v>
       </c>
       <c r="BJ6">
-        <v>0.9445074310739168</v>
+        <v>0.9150413701143836</v>
       </c>
       <c r="BK6">
-        <v>0.9340957076865324</v>
+        <v>0.8504075875487808</v>
+      </c>
+      <c r="BL6">
+        <v>0.8719430356015804</v>
+      </c>
+      <c r="BM6">
+        <v>0.9415865862786864</v>
+      </c>
+      <c r="BN6">
+        <v>0.8909967763044665</v>
+      </c>
+      <c r="BO6">
+        <v>0.9399158329462572</v>
       </c>
       <c r="BP6">
-        <v>0.9126567194808004</v>
+        <v>0.9319982152211868</v>
+      </c>
+      <c r="BQ6">
+        <v>0.9460600951539052</v>
       </c>
       <c r="BR6">
-        <v>0.9471200195313836</v>
+        <v>0.9387077768988999</v>
       </c>
       <c r="BS6">
-        <v>0.9351768893381808</v>
+        <v>0.9089318511201396</v>
+      </c>
+      <c r="BT6">
+        <v>0.949978062175449</v>
       </c>
       <c r="BU6">
-        <v>0.940515522151342</v>
+        <v>0.9529644876888476</v>
       </c>
       <c r="BV6">
-        <v>0.9377052908736978</v>
+        <v>0.8570414410545686</v>
+      </c>
+      <c r="BW6">
+        <v>0.9526876923079028</v>
+      </c>
+      <c r="BX6">
+        <v>0.9468478041740968</v>
+      </c>
+      <c r="BY6">
+        <v>0.8493368079971118</v>
       </c>
       <c r="BZ6">
-        <v>0.941939912657809</v>
+        <v>0.9250668910213452</v>
       </c>
       <c r="CA6">
-        <v>0.948973752058012</v>
+        <v>0.9117515794850076</v>
+      </c>
+      <c r="CB6">
+        <v>0.8408224880414394</v>
       </c>
       <c r="CC6">
-        <v>0.9479561045234844</v>
+        <v>0.9447788970830132</v>
+      </c>
+      <c r="CD6">
+        <v>0.9264903345963332</v>
+      </c>
+      <c r="CE6">
+        <v>0.8720439975124995</v>
       </c>
       <c r="CF6">
-        <v>0.947773067657342</v>
+        <v>0.8807394118395915</v>
       </c>
       <c r="CG6">
-        <v>0.9487702771717248</v>
+        <v>0.9224266845139296</v>
       </c>
       <c r="CH6">
-        <v>0.9179105549475036</v>
+        <v>0.91280836547412</v>
+      </c>
+      <c r="CI6">
+        <v>0.9035716928624906</v>
       </c>
       <c r="CK6">
-        <v>0.92464045927523</v>
+        <v>0.9203237832312994</v>
+      </c>
+      <c r="CL6">
+        <v>0.8705369244361453</v>
+      </c>
+      <c r="CM6">
+        <v>0.92064337507139</v>
       </c>
       <c r="CN6">
-        <v>0.933367351506894</v>
+        <v>0.9229575082895732</v>
+      </c>
+      <c r="CO6">
+        <v>0.892825991673751</v>
       </c>
       <c r="CP6">
-        <v>0.9431864255512994</v>
+        <v>0.8848699241766158</v>
+      </c>
+      <c r="CQ6">
+        <v>0.9200743476021196</v>
       </c>
       <c r="CR6">
-        <v>0.8861164181417303</v>
+        <v>0.9471832891811246</v>
       </c>
       <c r="CS6">
-        <v>0.9471832891811246</v>
+        <v>0.9230412650277412</v>
+      </c>
+      <c r="CT6">
+        <v>0.9087480097040476</v>
+      </c>
+      <c r="CU6">
+        <v>0.8572867118166871</v>
+      </c>
+      <c r="CV6">
+        <v>0.9431182474504586</v>
       </c>
     </row>
-    <row r="7" spans="1:97">
+    <row r="7" spans="1:101">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
         <v>0.9476290115313716</v>
       </c>
+      <c r="C7">
+        <v>0.9098048087198062</v>
+      </c>
+      <c r="D7">
+        <v>0.911000681569196</v>
+      </c>
       <c r="E7">
+        <v>0.9222824291692474</v>
+      </c>
+      <c r="F7">
         <v>0.956626370530816</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>0.948601082333924</v>
       </c>
-      <c r="H7">
+      <c r="I7">
+        <v>0.9536036642320505</v>
+      </c>
+      <c r="J7">
         <v>0.9625061084024448</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>0.9462210042379382</v>
       </c>
-      <c r="K7">
-        <v>0.9543760607678822</v>
+      <c r="L7">
+        <v>0.9171033183718468</v>
       </c>
       <c r="M7">
         <v>0.9413043961559976</v>
       </c>
       <c r="N7">
+        <v>0.9543760607678822</v>
+      </c>
+      <c r="O7">
+        <v>0.8962851425245937</v>
+      </c>
+      <c r="P7">
         <v>0.9561048096097098</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>0.941792428465526</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>0.9622556064962604</v>
       </c>
       <c r="S7">
-        <v>0.9571260495218994</v>
+        <v>0.918047252453188</v>
+      </c>
+      <c r="T7">
+        <v>0.930936993809518</v>
+      </c>
+      <c r="U7">
+        <v>0.8826249348728651</v>
+      </c>
+      <c r="V7">
+        <v>0.9037427773172982</v>
       </c>
       <c r="W7">
         <v>0.962415376168996</v>
       </c>
+      <c r="X7">
+        <v>0.9188049026509764</v>
+      </c>
       <c r="Y7">
         <v>0.9584330261448016</v>
       </c>
       <c r="Z7">
         <v>0.9573688966148948</v>
       </c>
+      <c r="AA7">
+        <v>0.9052915265259778</v>
+      </c>
       <c r="AB7">
-        <v>0.9451971867183708</v>
+        <v>0.9397666318480437</v>
+      </c>
+      <c r="AC7">
+        <v>0.9066630308992932</v>
+      </c>
+      <c r="AD7">
+        <v>0.9471401979881104</v>
+      </c>
+      <c r="AE7">
+        <v>0.935392221527334</v>
+      </c>
+      <c r="AF7">
+        <v>0.9498202945801048</v>
+      </c>
+      <c r="AG7">
+        <v>0.9372168458848948</v>
+      </c>
+      <c r="AH7">
+        <v>0.9178827413451922</v>
+      </c>
+      <c r="AI7">
+        <v>0.9473956116932658</v>
+      </c>
+      <c r="AJ7">
+        <v>0.9481239495231758</v>
       </c>
       <c r="AK7">
+        <v>0.919754112116199</v>
+      </c>
+      <c r="AL7">
+        <v>0.9321238521782754</v>
+      </c>
+      <c r="AM7">
+        <v>0.9290711152399408</v>
+      </c>
+      <c r="AN7">
+        <v>0.9327508504213486</v>
+      </c>
+      <c r="AO7">
+        <v>0.938848803026334</v>
+      </c>
+      <c r="AP7">
+        <v>0.9429750507925804</v>
+      </c>
+      <c r="AQ7">
+        <v>0.9263657403003041</v>
+      </c>
+      <c r="AR7">
         <v>0.9397115304516312</v>
       </c>
-      <c r="AQ7">
-        <v>0.948523907339312</v>
-      </c>
-      <c r="AR7">
-        <v>0.9427219789477764</v>
-      </c>
       <c r="AS7">
-        <v>0.931729426466966</v>
+        <v>0.8830256041200215</v>
       </c>
       <c r="AT7">
-        <v>0.9471401979881104</v>
+        <v>0.9420032850302822</v>
       </c>
       <c r="AU7">
-        <v>0.9498202945801048</v>
+        <v>0.9373647274150724</v>
+      </c>
+      <c r="AV7">
+        <v>0.9438694521076626</v>
+      </c>
+      <c r="AW7">
+        <v>0.8785190960721363</v>
       </c>
       <c r="AX7">
-        <v>0.9473956116932658</v>
+        <v>0.8755817753048878</v>
+      </c>
+      <c r="AY7">
+        <v>0.8668584019622441</v>
+      </c>
+      <c r="AZ7">
+        <v>0.9442519964978796</v>
+      </c>
+      <c r="BA7">
+        <v>0.9351183323849948</v>
       </c>
       <c r="BB7">
-        <v>0.9522425663316764</v>
+        <v>0.9367256118969524</v>
       </c>
       <c r="BC7">
-        <v>0.9537446508298796</v>
+        <v>0.9078995710349256</v>
+      </c>
+      <c r="BD7">
+        <v>0.914159168188054</v>
+      </c>
+      <c r="BE7">
+        <v>0.8881825908026413</v>
+      </c>
+      <c r="BF7">
+        <v>0.9579048703533199</v>
+      </c>
+      <c r="BG7">
+        <v>0.9488032595764098</v>
+      </c>
+      <c r="BH7">
+        <v>0.9033758907287394</v>
       </c>
       <c r="BI7">
-        <v>0.9562204335723944</v>
+        <v>0.9189457372468468</v>
       </c>
       <c r="BJ7">
-        <v>0.9388851244611128</v>
+        <v>0.9060659136272584</v>
       </c>
       <c r="BK7">
-        <v>0.9372032829393784</v>
+        <v>0.8515483042113083</v>
+      </c>
+      <c r="BL7">
+        <v>0.9016839495773196</v>
+      </c>
+      <c r="BM7">
+        <v>0.9339519274845141</v>
+      </c>
+      <c r="BN7">
+        <v>0.8808933028019221</v>
+      </c>
+      <c r="BO7">
+        <v>0.9469387422248516</v>
       </c>
       <c r="BP7">
-        <v>0.9139127043872955</v>
+        <v>0.9221392275344844</v>
+      </c>
+      <c r="BQ7">
+        <v>0.949179681083266</v>
       </c>
       <c r="BR7">
-        <v>0.933670121560054</v>
-      </c>
-      <c r="BS7">
-        <v>0.937335607108444</v>
+        <v>0.940320714716455</v>
+      </c>
+      <c r="BT7">
+        <v>0.9510052630421248</v>
       </c>
       <c r="BU7">
-        <v>0.9498918169894284</v>
+        <v>0.9542284524613732</v>
       </c>
       <c r="BV7">
-        <v>0.9399189591993208</v>
+        <v>0.8721679034482341</v>
+      </c>
+      <c r="BW7">
+        <v>0.9573050159448691</v>
+      </c>
+      <c r="BX7">
+        <v>0.9301842606737448</v>
+      </c>
+      <c r="BY7">
+        <v>0.858278957684057</v>
+      </c>
+      <c r="BZ7">
+        <v>0.9321948195612024</v>
+      </c>
+      <c r="CA7">
+        <v>0.9124752403251792</v>
+      </c>
+      <c r="CB7">
+        <v>0.8497471554625989</v>
+      </c>
+      <c r="CC7">
+        <v>0.948099671315715</v>
+      </c>
+      <c r="CD7">
+        <v>0.9229182410568776</v>
+      </c>
+      <c r="CE7">
+        <v>0.8830867307314432</v>
       </c>
       <c r="CF7">
-        <v>0.9453733282674216</v>
+        <v>0.8767960726849298</v>
       </c>
       <c r="CG7">
-        <v>0.9476956536083632</v>
+        <v>0.9086668670248286</v>
       </c>
       <c r="CH7">
-        <v>0.906053150479436</v>
+        <v>0.914315513784938</v>
+      </c>
+      <c r="CI7">
+        <v>0.8773107262652705</v>
+      </c>
+      <c r="CK7">
+        <v>0.919087220912096</v>
+      </c>
+      <c r="CL7">
+        <v>0.8959301933768949</v>
+      </c>
+      <c r="CM7">
+        <v>0.9204917357979386</v>
+      </c>
+      <c r="CN7">
+        <v>0.927549679615604</v>
+      </c>
+      <c r="CO7">
+        <v>0.9146232662900292</v>
+      </c>
+      <c r="CP7">
+        <v>0.8848769948951942</v>
+      </c>
+      <c r="CQ7">
+        <v>0.9186694650472492</v>
+      </c>
+      <c r="CR7">
+        <v>0.9472838292279668</v>
+      </c>
+      <c r="CS7">
+        <v>0.9231228521428996</v>
+      </c>
+      <c r="CT7">
+        <v>0.9138626792498812</v>
+      </c>
+      <c r="CU7">
+        <v>0.8601785458619958</v>
+      </c>
+      <c r="CV7">
+        <v>0.9349616774338408</v>
       </c>
     </row>
   </sheetData>
